--- a/EP_Processamento/dataframe.xlsx
+++ b/EP_Processamento/dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>image_width</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>resultado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -510,6 +515,11 @@
       <c r="I2" t="n">
         <v>247</v>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +551,11 @@
       <c r="I3" t="n">
         <v>247</v>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,6 +587,11 @@
       <c r="I4" t="n">
         <v>137</v>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -603,6 +623,11 @@
       <c r="I5" t="n">
         <v>200</v>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,22 +636,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>106.5</v>
+        <v>172</v>
       </c>
       <c r="G6" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>136</v>
@@ -634,6 +659,11 @@
       <c r="I6" t="n">
         <v>474</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -657,7 +687,7 @@
         <v>228</v>
       </c>
       <c r="G7" t="n">
-        <v>660</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>136</v>
@@ -665,67 +695,82 @@
       <c r="I7" t="n">
         <v>474</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>teste-04</t>
+          <t>teste-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>172</v>
+        <v>432</v>
       </c>
       <c r="G8" t="n">
-        <v>483</v>
+        <v>884</v>
       </c>
       <c r="H8" t="n">
-        <v>136</v>
+        <v>616</v>
       </c>
       <c r="I8" t="n">
-        <v>474</v>
+        <v>206</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>teste-05</t>
+          <t>teste-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C9" t="n">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>432</v>
+        <v>590.5</v>
       </c>
       <c r="G9" t="n">
-        <v>884</v>
+        <v>936</v>
       </c>
       <c r="H9" t="n">
-        <v>616</v>
+        <v>754</v>
       </c>
       <c r="I9" t="n">
-        <v>206</v>
+        <v>258</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -735,22 +780,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="n">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
-        <v>590.5</v>
+        <v>626</v>
       </c>
       <c r="G10" t="n">
-        <v>936</v>
+        <v>1120</v>
       </c>
       <c r="H10" t="n">
         <v>754</v>
@@ -758,36 +803,46 @@
       <c r="I10" t="n">
         <v>258</v>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>teste-06</t>
+          <t>teste-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>117</v>
+        <v>463</v>
       </c>
       <c r="C11" t="n">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>626</v>
+        <v>233.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1120</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>754</v>
+        <v>231</v>
       </c>
       <c r="I11" t="n">
-        <v>258</v>
+        <v>1132</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -797,22 +852,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="C12" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>233.5</v>
+        <v>66.5</v>
       </c>
       <c r="G12" t="n">
-        <v>315</v>
+        <v>11.5</v>
       </c>
       <c r="H12" t="n">
         <v>231</v>
@@ -820,67 +875,82 @@
       <c r="I12" t="n">
         <v>1132</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>teste-07</t>
+          <t>teste-08</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5</v>
+        <v>126.5</v>
       </c>
       <c r="G13" t="n">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H13" t="n">
-        <v>231</v>
+        <v>522</v>
       </c>
       <c r="I13" t="n">
-        <v>1132</v>
+        <v>215</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>teste-08</t>
+          <t>teste-09</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94</v>
+        <v>458</v>
       </c>
       <c r="C14" t="n">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>126.5</v>
+        <v>243</v>
       </c>
       <c r="G14" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>522</v>
+        <v>284</v>
       </c>
       <c r="I14" t="n">
-        <v>215</v>
+        <v>945</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -890,22 +960,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="C15" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>243</v>
+        <v>258.5</v>
       </c>
       <c r="G15" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>284</v>
@@ -913,424 +983,494 @@
       <c r="I15" t="n">
         <v>945</v>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>teste-09</t>
+          <t>teste-10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390</v>
+        <v>243</v>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>849</v>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F16" t="n">
-        <v>258.5</v>
+        <v>207.5</v>
       </c>
       <c r="G16" t="n">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>284</v>
+        <v>1770</v>
       </c>
       <c r="I16" t="n">
-        <v>945</v>
+        <v>532</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>teste-09</t>
+          <t>teste-10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>385</v>
+        <v>241</v>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>751</v>
       </c>
       <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
         <v>27</v>
       </c>
-      <c r="E17" t="n">
-        <v>19</v>
-      </c>
       <c r="F17" t="n">
-        <v>244.5</v>
+        <v>119</v>
       </c>
       <c r="G17" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>284</v>
+        <v>1770</v>
       </c>
       <c r="I17" t="n">
-        <v>945</v>
+        <v>532</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>teste-09</t>
+          <t>teste-11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="C18" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>197.5</v>
+        <v>26.5</v>
       </c>
       <c r="G18" t="n">
-        <v>437</v>
+        <v>55</v>
       </c>
       <c r="H18" t="n">
-        <v>284</v>
+        <v>705</v>
       </c>
       <c r="I18" t="n">
-        <v>945</v>
+        <v>223</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>teste-10</t>
+          <t>teste-12</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="C19" t="n">
-        <v>849</v>
+        <v>64</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F19" t="n">
-        <v>207.5</v>
+        <v>496</v>
       </c>
       <c r="G19" t="n">
-        <v>880</v>
+        <v>1220</v>
       </c>
       <c r="H19" t="n">
-        <v>1770</v>
+        <v>152</v>
       </c>
       <c r="I19" t="n">
-        <v>532</v>
+        <v>437</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>teste-10</t>
+          <t>teste-13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="C20" t="n">
-        <v>751</v>
+        <v>244</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="G20" t="n">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="H20" t="n">
-        <v>1770</v>
+        <v>669</v>
       </c>
       <c r="I20" t="n">
-        <v>532</v>
+        <v>282</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>teste-10</t>
+          <t>teste-14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
-        <v>423</v>
+        <v>573</v>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F21" t="n">
-        <v>467</v>
+        <v>901</v>
       </c>
       <c r="G21" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1770</v>
+        <v>1278</v>
       </c>
       <c r="I21" t="n">
-        <v>532</v>
+        <v>451</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>teste-11</t>
+          <t>teste-14</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
-        <v>26.5</v>
+        <v>939.5</v>
       </c>
       <c r="G22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>705</v>
+        <v>1278</v>
       </c>
       <c r="I22" t="n">
-        <v>223</v>
+        <v>451</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>teste-12</t>
+          <t>teste-15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C23" t="n">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>496</v>
+        <v>137</v>
       </c>
       <c r="G23" t="n">
-        <v>1220</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="I23" t="n">
-        <v>437</v>
+        <v>151</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>teste-13</t>
+          <t>teste-15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="C24" t="n">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="D24" t="n">
         <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
-        <v>56</v>
+        <v>161.5</v>
       </c>
       <c r="G24" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>669</v>
+        <v>408</v>
       </c>
       <c r="I24" t="n">
-        <v>282</v>
+        <v>151</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>teste-14</t>
+          <t>teste-16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="C25" t="n">
-        <v>573</v>
+        <v>175</v>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>901</v>
+        <v>121</v>
       </c>
       <c r="G25" t="n">
-        <v>1113</v>
+        <v>207</v>
       </c>
       <c r="H25" t="n">
-        <v>1278</v>
+        <v>451</v>
       </c>
       <c r="I25" t="n">
-        <v>451</v>
+        <v>145</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>teste-14</t>
+          <t>teste-17</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="C26" t="n">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>939.5</v>
+        <v>152</v>
       </c>
       <c r="G26" t="n">
-        <v>1200</v>
+        <v>225</v>
       </c>
       <c r="H26" t="n">
-        <v>1278</v>
+        <v>461</v>
       </c>
       <c r="I26" t="n">
-        <v>451</v>
+        <v>167</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>teste-14</t>
+          <t>teste-17</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="C27" t="n">
-        <v>929</v>
+        <v>172</v>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>456.5</v>
+        <v>161</v>
       </c>
       <c r="G27" t="n">
-        <v>1372</v>
+        <v>275</v>
       </c>
       <c r="H27" t="n">
-        <v>1278</v>
+        <v>461</v>
       </c>
       <c r="I27" t="n">
-        <v>451</v>
+        <v>167</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>teste-15</t>
+          <t>teste-18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C28" t="n">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>137</v>
+        <v>236.5</v>
       </c>
       <c r="G28" t="n">
-        <v>220</v>
+        <v>448</v>
       </c>
       <c r="H28" t="n">
-        <v>408</v>
+        <v>555</v>
       </c>
       <c r="I28" t="n">
-        <v>151</v>
+        <v>175</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>teste-15</t>
+          <t>teste-18</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C29" t="n">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
         <v>24</v>
@@ -1339,88 +1479,103 @@
         <v>161.5</v>
       </c>
       <c r="G29" t="n">
-        <v>264</v>
+        <v>360</v>
       </c>
       <c r="H29" t="n">
-        <v>408</v>
+        <v>555</v>
       </c>
       <c r="I29" t="n">
-        <v>151</v>
+        <v>175</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>teste-15</t>
+          <t>teste-19</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="C30" t="n">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="F30" t="n">
-        <v>150.5</v>
+        <v>1421</v>
       </c>
       <c r="G30" t="n">
-        <v>260</v>
+        <v>1752</v>
       </c>
       <c r="H30" t="n">
-        <v>408</v>
+        <v>863</v>
       </c>
       <c r="I30" t="n">
-        <v>151</v>
+        <v>863</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>teste-16</t>
+          <t>teste-20</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>121</v>
+        <v>89.5</v>
       </c>
       <c r="G31" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="H31" t="n">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="I31" t="n">
         <v>145</v>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>teste-17</t>
+          <t>teste-20</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="D32" t="n">
         <v>9</v>
@@ -1429,2248 +1584,2505 @@
         <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>152</v>
+        <v>144.5</v>
       </c>
       <c r="G32" t="n">
         <v>225</v>
       </c>
       <c r="H32" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="I32" t="n">
-        <v>167</v>
+        <v>145</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>teste-17</t>
+          <t>teste-21</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>459</v>
+      </c>
+      <c r="C33" t="n">
         <v>74</v>
       </c>
-      <c r="C33" t="n">
-        <v>172</v>
-      </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="G33" t="n">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="H33" t="n">
-        <v>461</v>
+        <v>171</v>
       </c>
       <c r="I33" t="n">
-        <v>167</v>
+        <v>751</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>teste-18</t>
+          <t>teste-22</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76</v>
+        <v>396</v>
       </c>
       <c r="C34" t="n">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>236.5</v>
+        <v>237.5</v>
       </c>
       <c r="G34" t="n">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="H34" t="n">
-        <v>555</v>
+        <v>146</v>
       </c>
       <c r="I34" t="n">
-        <v>175</v>
+        <v>649</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>teste-18</t>
+          <t>teste-23</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76</v>
+        <v>527</v>
       </c>
       <c r="C35" t="n">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>161.5</v>
+        <v>346</v>
       </c>
       <c r="G35" t="n">
-        <v>360</v>
+        <v>462</v>
       </c>
       <c r="H35" t="n">
-        <v>555</v>
+        <v>179</v>
       </c>
       <c r="I35" t="n">
-        <v>175</v>
+        <v>833</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>teste-19</t>
+          <t>teste-24</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>408</v>
+        <v>53</v>
       </c>
       <c r="C36" t="n">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E36" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F36" t="n">
-        <v>1421</v>
+        <v>133</v>
       </c>
       <c r="G36" t="n">
-        <v>1752</v>
+        <v>180</v>
       </c>
       <c r="H36" t="n">
-        <v>863</v>
+        <v>501</v>
       </c>
       <c r="I36" t="n">
-        <v>863</v>
+        <v>123</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>teste-20</t>
+          <t>teste-25</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C37" t="n">
-        <v>237</v>
+        <v>375</v>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F37" t="n">
-        <v>144.5</v>
+        <v>183</v>
       </c>
       <c r="G37" t="n">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="H37" t="n">
-        <v>474</v>
+        <v>634</v>
       </c>
       <c r="I37" t="n">
-        <v>145</v>
+        <v>247</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>teste-20</t>
+          <t>teste-26</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="C38" t="n">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F38" t="n">
-        <v>89.5</v>
+        <v>91.5</v>
       </c>
       <c r="G38" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H38" t="n">
-        <v>474</v>
+        <v>115</v>
       </c>
       <c r="I38" t="n">
-        <v>145</v>
+        <v>495</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>teste-21</t>
+          <t>teste-27</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="C39" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>265</v>
+        <v>62.5</v>
       </c>
       <c r="G39" t="n">
-        <v>392</v>
+        <v>108</v>
       </c>
       <c r="H39" t="n">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="I39" t="n">
-        <v>751</v>
+        <v>464</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>teste-22</t>
+          <t>teste-27</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="C40" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D40" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>237.5</v>
+        <v>117.5</v>
       </c>
       <c r="G40" t="n">
-        <v>338</v>
+        <v>180</v>
       </c>
       <c r="H40" t="n">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I40" t="n">
-        <v>649</v>
+        <v>464</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>teste-23</t>
+          <t>teste-28</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>527</v>
+        <v>343</v>
       </c>
       <c r="C41" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D41" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>346</v>
+        <v>130.5</v>
       </c>
       <c r="G41" t="n">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="H41" t="n">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="I41" t="n">
-        <v>833</v>
+        <v>595</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>teste-24</t>
+          <t>teste-28</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="C42" t="n">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F42" t="n">
-        <v>133</v>
+        <v>197.5</v>
       </c>
       <c r="G42" t="n">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="H42" t="n">
-        <v>501</v>
+        <v>138</v>
       </c>
       <c r="I42" t="n">
-        <v>123</v>
+        <v>595</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>teste-25</t>
+          <t>teste-29</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129</v>
+        <v>400</v>
       </c>
       <c r="C43" t="n">
-        <v>375</v>
+        <v>64</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E43" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G43" t="n">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H43" t="n">
-        <v>634</v>
+        <v>141</v>
       </c>
       <c r="I43" t="n">
-        <v>247</v>
+        <v>635</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>teste-26</t>
+          <t>teste-29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="C44" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D44" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>91.5</v>
+        <v>180.5</v>
       </c>
       <c r="G44" t="n">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="H44" t="n">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="I44" t="n">
-        <v>495</v>
+        <v>635</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>teste-27</t>
+          <t>teste-30</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>269</v>
+        <v>397</v>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D45" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>62.5</v>
+        <v>186</v>
       </c>
       <c r="G45" t="n">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="H45" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="I45" t="n">
-        <v>464</v>
+        <v>630</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>teste-27</t>
+          <t>teste-30</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="C46" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>117.5</v>
+        <v>131.5</v>
       </c>
       <c r="G46" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H46" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="I46" t="n">
-        <v>464</v>
+        <v>630</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>teste-28</t>
+          <t>teste-31</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="C47" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>130.5</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="H47" t="n">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="I47" t="n">
-        <v>595</v>
+        <v>436</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>teste-28</t>
+          <t>teste-31</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="C48" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D48" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>197.5</v>
+        <v>64</v>
       </c>
       <c r="G48" t="n">
-        <v>312</v>
+        <v>91</v>
       </c>
       <c r="H48" t="n">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="I48" t="n">
-        <v>595</v>
+        <v>436</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>teste-29</t>
+          <t>teste-32</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="C49" t="n">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>198</v>
+        <v>41.5</v>
       </c>
       <c r="G49" t="n">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="H49" t="n">
-        <v>141</v>
+        <v>415</v>
       </c>
       <c r="I49" t="n">
-        <v>635</v>
+        <v>102</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>teste-29</t>
+          <t>teste-33</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>366</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>180.5</v>
+        <v>3.5</v>
       </c>
       <c r="G50" t="n">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="H50" t="n">
-        <v>141</v>
+        <v>418</v>
       </c>
       <c r="I50" t="n">
-        <v>635</v>
+        <v>94</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>teste-30</t>
+          <t>teste-33</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="C51" t="n">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="D51" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>131.5</v>
+        <v>49</v>
       </c>
       <c r="G51" t="n">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="H51" t="n">
-        <v>147</v>
+        <v>418</v>
       </c>
       <c r="I51" t="n">
-        <v>630</v>
+        <v>94</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>teste-30</t>
+          <t>teste-34</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>397</v>
+        <v>265</v>
       </c>
       <c r="C52" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>186</v>
+        <v>29.5</v>
       </c>
       <c r="G52" t="n">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="I52" t="n">
-        <v>630</v>
+        <v>423</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>teste-31</t>
+          <t>teste-35</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>64</v>
+        <v>60.5</v>
       </c>
       <c r="G53" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H53" t="n">
-        <v>99</v>
+        <v>471</v>
       </c>
       <c r="I53" t="n">
-        <v>436</v>
+        <v>109</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>teste-31</t>
+          <t>teste-36</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="C54" t="n">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>46.5</v>
       </c>
       <c r="G54" t="n">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H54" t="n">
-        <v>99</v>
+        <v>414</v>
       </c>
       <c r="I54" t="n">
-        <v>436</v>
+        <v>105</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>teste-32</t>
+          <t>teste-37</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="C55" t="n">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>41.5</v>
+        <v>136</v>
       </c>
       <c r="G55" t="n">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="H55" t="n">
-        <v>415</v>
+        <v>114</v>
       </c>
       <c r="I55" t="n">
-        <v>102</v>
+        <v>515</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>teste-33</t>
+          <t>teste-38</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" t="n">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G56" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="H56" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I56" t="n">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>teste-33</t>
+          <t>teste-39</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
+        <v>524</v>
       </c>
       <c r="C57" t="n">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>3.5</v>
+        <v>365</v>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>495</v>
       </c>
       <c r="H57" t="n">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="I57" t="n">
-        <v>94</v>
+        <v>834</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>teste-34</t>
+          <t>teste-40</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="C58" t="n">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F58" t="n">
-        <v>29.5</v>
+        <v>274.5</v>
       </c>
       <c r="G58" t="n">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="H58" t="n">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="I58" t="n">
-        <v>423</v>
+        <v>704</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>teste-35</t>
+          <t>teste-40</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>53</v>
+        <v>343</v>
       </c>
       <c r="C59" t="n">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E59" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>60.5</v>
+        <v>181.5</v>
       </c>
       <c r="G59" t="n">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="H59" t="n">
-        <v>471</v>
+        <v>289</v>
       </c>
       <c r="I59" t="n">
-        <v>109</v>
+        <v>704</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>teste-36</t>
+          <t>teste-41</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="C60" t="n">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>46.5</v>
+        <v>151</v>
       </c>
       <c r="G60" t="n">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="H60" t="n">
-        <v>414</v>
+        <v>152</v>
       </c>
       <c r="I60" t="n">
-        <v>105</v>
+        <v>707</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>teste-37</t>
+          <t>teste-41</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>319</v>
+        <v>446</v>
       </c>
       <c r="C61" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D61" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="G61" t="n">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="H61" t="n">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="I61" t="n">
-        <v>515</v>
+        <v>707</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>teste-38</t>
+          <t>teste-42</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C62" t="n">
-        <v>248</v>
+        <v>691</v>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F62" t="n">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="G62" t="n">
-        <v>126</v>
+        <v>645</v>
       </c>
       <c r="H62" t="n">
-        <v>416</v>
+        <v>1168</v>
       </c>
       <c r="I62" t="n">
-        <v>110</v>
+        <v>264</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>teste-39</t>
+          <t>teste-42</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>524</v>
+        <v>114</v>
       </c>
       <c r="C63" t="n">
-        <v>66</v>
+        <v>751</v>
       </c>
       <c r="D63" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F63" t="n">
-        <v>365</v>
+        <v>639</v>
       </c>
       <c r="G63" t="n">
-        <v>495</v>
+        <v>810</v>
       </c>
       <c r="H63" t="n">
-        <v>171</v>
+        <v>1168</v>
       </c>
       <c r="I63" t="n">
-        <v>834</v>
+        <v>264</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>teste-40</t>
+          <t>teste-43</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="C64" t="n">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>274.5</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="H64" t="n">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="I64" t="n">
-        <v>704</v>
+        <v>707</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>teste-40</t>
+          <t>teste-43</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="C65" t="n">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D65" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>181.5</v>
+        <v>143</v>
       </c>
       <c r="G65" t="n">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="H65" t="n">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="I65" t="n">
-        <v>704</v>
+        <v>707</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>teste-41</t>
+          <t>teste-44</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="C66" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D66" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>231</v>
+        <v>280.5</v>
       </c>
       <c r="G66" t="n">
-        <v>336</v>
+        <v>462</v>
       </c>
       <c r="H66" t="n">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I66" t="n">
-        <v>707</v>
+        <v>879</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>teste-41</t>
+          <t>teste-44</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>408</v>
+        <v>557</v>
       </c>
       <c r="C67" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D67" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>151</v>
+        <v>380</v>
       </c>
       <c r="G67" t="n">
-        <v>312</v>
+        <v>525</v>
       </c>
       <c r="H67" t="n">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I67" t="n">
-        <v>707</v>
+        <v>879</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>teste-42</t>
+          <t>teste-45</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>114</v>
+        <v>552</v>
       </c>
       <c r="C68" t="n">
-        <v>751</v>
+        <v>94</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E68" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>639</v>
+        <v>377</v>
       </c>
       <c r="G68" t="n">
-        <v>810</v>
+        <v>495</v>
       </c>
       <c r="H68" t="n">
-        <v>1168</v>
+        <v>199</v>
       </c>
       <c r="I68" t="n">
-        <v>264</v>
+        <v>876</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>teste-42</t>
+          <t>teste-46</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="C69" t="n">
-        <v>691</v>
+        <v>80</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>358</v>
+        <v>73.5</v>
       </c>
       <c r="G69" t="n">
-        <v>645</v>
+        <v>140</v>
       </c>
       <c r="H69" t="n">
-        <v>1168</v>
+        <v>152</v>
       </c>
       <c r="I69" t="n">
-        <v>264</v>
+        <v>607</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>teste-43</t>
+          <t>teste-47</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>406</v>
+        <v>70</v>
       </c>
       <c r="C70" t="n">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="D70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="G70" t="n">
-        <v>150</v>
+        <v>464</v>
       </c>
       <c r="H70" t="n">
-        <v>158</v>
+        <v>704</v>
       </c>
       <c r="I70" t="n">
-        <v>707</v>
+        <v>179</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>teste-43</t>
+          <t>teste-48</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>443</v>
+        <v>752</v>
       </c>
       <c r="C71" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
-        <v>143</v>
+        <v>290.5</v>
       </c>
       <c r="G71" t="n">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="H71" t="n">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="I71" t="n">
-        <v>707</v>
+        <v>1241</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>teste-44</t>
+          <t>teste-49</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>511</v>
+        <v>85</v>
       </c>
       <c r="C72" t="n">
-        <v>86</v>
+        <v>347</v>
       </c>
       <c r="D72" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" t="n">
-        <v>280.5</v>
+        <v>135.5</v>
       </c>
       <c r="G72" t="n">
-        <v>462</v>
+        <v>224</v>
       </c>
       <c r="H72" t="n">
-        <v>191</v>
+        <v>792</v>
       </c>
       <c r="I72" t="n">
-        <v>879</v>
+        <v>176</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>teste-44</t>
+          <t>teste-49</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>557</v>
+        <v>84</v>
       </c>
       <c r="C73" t="n">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="D73" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>380</v>
+        <v>176.5</v>
       </c>
       <c r="G73" t="n">
-        <v>525</v>
+        <v>234</v>
       </c>
       <c r="H73" t="n">
-        <v>191</v>
+        <v>792</v>
       </c>
       <c r="I73" t="n">
-        <v>879</v>
+        <v>176</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>teste-45</t>
+          <t>teste-50</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>552</v>
+        <v>75</v>
       </c>
       <c r="C74" t="n">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="D74" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F74" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G74" t="n">
-        <v>495</v>
+        <v>341</v>
       </c>
       <c r="H74" t="n">
-        <v>199</v>
+        <v>766</v>
       </c>
       <c r="I74" t="n">
-        <v>876</v>
+        <v>182</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>teste-46</t>
+          <t>teste-50</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="C75" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="D75" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F75" t="n">
-        <v>73.5</v>
+        <v>305</v>
       </c>
       <c r="G75" t="n">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="H75" t="n">
-        <v>152</v>
+        <v>766</v>
       </c>
       <c r="I75" t="n">
-        <v>607</v>
+        <v>182</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>teste-47</t>
+          <t>teste-51</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>70</v>
+        <v>444</v>
       </c>
       <c r="C76" t="n">
-        <v>401</v>
+        <v>64</v>
       </c>
       <c r="D76" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E76" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G76" t="n">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="H76" t="n">
-        <v>704</v>
+        <v>148</v>
       </c>
       <c r="I76" t="n">
-        <v>179</v>
+        <v>708</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>teste-48</t>
+          <t>teste-51</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>752</v>
+        <v>408</v>
       </c>
       <c r="C77" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>290.5</v>
+        <v>166</v>
       </c>
       <c r="G77" t="n">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="H77" t="n">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="I77" t="n">
-        <v>1241</v>
+        <v>708</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>teste-49</t>
+          <t>teste-52</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C78" t="n">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="D78" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F78" t="n">
-        <v>176.5</v>
+        <v>382.5</v>
       </c>
       <c r="G78" t="n">
-        <v>234</v>
+        <v>609</v>
       </c>
       <c r="H78" t="n">
-        <v>792</v>
+        <v>1197</v>
       </c>
       <c r="I78" t="n">
-        <v>176</v>
+        <v>285</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>teste-49</t>
+          <t>teste-53</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C79" t="n">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F79" t="n">
-        <v>135.5</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H79" t="n">
-        <v>792</v>
+        <v>544</v>
       </c>
       <c r="I79" t="n">
-        <v>176</v>
+        <v>197</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>teste-50</t>
+          <t>teste-53</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" t="n">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
         <v>31</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="G80" t="n">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="H80" t="n">
-        <v>766</v>
+        <v>544</v>
       </c>
       <c r="I80" t="n">
-        <v>182</v>
+        <v>197</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>teste-50</t>
+          <t>teste-54</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" t="n">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F81" t="n">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="G81" t="n">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="H81" t="n">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="I81" t="n">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>teste-51</t>
+          <t>teste-55</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>408</v>
+        <v>116</v>
       </c>
       <c r="C82" t="n">
-        <v>65</v>
+        <v>541</v>
       </c>
       <c r="D82" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>166</v>
+        <v>79.5</v>
       </c>
       <c r="G82" t="n">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="H82" t="n">
-        <v>148</v>
+        <v>1168</v>
       </c>
       <c r="I82" t="n">
-        <v>708</v>
+        <v>263</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>teste-51</t>
+          <t>teste-55</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>444</v>
+        <v>116</v>
       </c>
       <c r="C83" t="n">
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="D83" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>280</v>
+        <v>168.5</v>
       </c>
       <c r="G83" t="n">
-        <v>378</v>
+        <v>240</v>
       </c>
       <c r="H83" t="n">
-        <v>148</v>
+        <v>1168</v>
       </c>
       <c r="I83" t="n">
-        <v>708</v>
+        <v>263</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>teste-52</t>
+          <t>teste-56</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C84" t="n">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F84" t="n">
-        <v>382.5</v>
+        <v>112.5</v>
       </c>
       <c r="G84" t="n">
-        <v>609</v>
+        <v>168</v>
       </c>
       <c r="H84" t="n">
-        <v>1197</v>
+        <v>870</v>
       </c>
       <c r="I84" t="n">
-        <v>285</v>
+        <v>184</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>teste-53</t>
+          <t>teste-57</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C85" t="n">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F85" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="H85" t="n">
-        <v>544</v>
+        <v>637</v>
       </c>
       <c r="I85" t="n">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>teste-53</t>
+          <t>teste-58</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C86" t="n">
-        <v>261</v>
+        <v>430</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="n">
-        <v>219</v>
+        <v>158.5</v>
       </c>
       <c r="G86" t="n">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="H86" t="n">
-        <v>544</v>
+        <v>865</v>
       </c>
       <c r="I86" t="n">
-        <v>197</v>
+        <v>267</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>teste-54</t>
+          <t>teste-59</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C87" t="n">
-        <v>275</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F87" t="n">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="G87" t="n">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="H87" t="n">
-        <v>726</v>
+        <v>835</v>
       </c>
       <c r="I87" t="n">
-        <v>179</v>
+        <v>240</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>teste-55</t>
+          <t>teste-60</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>79.5</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1168</v>
+        <v>180</v>
       </c>
       <c r="I88" t="n">
-        <v>263</v>
+        <v>799</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>nenhuma linha encontrada</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>teste-55</t>
+          <t>teste-61</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>116</v>
+        <v>511</v>
       </c>
       <c r="C89" t="n">
-        <v>476</v>
+        <v>112</v>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>168.5</v>
+        <v>159.5</v>
       </c>
       <c r="G89" t="n">
-        <v>240</v>
+        <v>333</v>
       </c>
       <c r="H89" t="n">
-        <v>1168</v>
+        <v>243</v>
       </c>
       <c r="I89" t="n">
-        <v>263</v>
+        <v>822</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>teste-56</t>
+          <t>teste-62</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>870</v>
+        <v>249</v>
       </c>
       <c r="I90" t="n">
-        <v>184</v>
+        <v>1003</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>nenhuma linha encontrada</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>teste-57</t>
+          <t>teste-63</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>637</v>
+        <v>226</v>
       </c>
       <c r="I91" t="n">
-        <v>177</v>
+        <v>863</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>nenhuma linha encontrada</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>teste-58</t>
+          <t>teste-64</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F92" t="n">
-        <v>158.5</v>
+        <v>76.5</v>
       </c>
       <c r="G92" t="n">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="H92" t="n">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="I92" t="n">
-        <v>267</v>
+        <v>228</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>teste-59</t>
+          <t>teste-65</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>104</v>
+        <v>528</v>
       </c>
       <c r="C93" t="n">
-        <v>415</v>
+        <v>140</v>
       </c>
       <c r="D93" t="n">
+        <v>36</v>
+      </c>
+      <c r="E93" t="n">
         <v>7</v>
       </c>
-      <c r="E93" t="n">
-        <v>32</v>
-      </c>
       <c r="F93" t="n">
-        <v>152</v>
+        <v>183.5</v>
       </c>
       <c r="G93" t="n">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="H93" t="n">
-        <v>835</v>
+        <v>279</v>
       </c>
       <c r="I93" t="n">
-        <v>240</v>
+        <v>1080</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>teste-61</t>
+          <t>teste-66</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>511</v>
+        <v>137</v>
       </c>
       <c r="C94" t="n">
-        <v>112</v>
+        <v>420</v>
       </c>
       <c r="D94" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F94" t="n">
-        <v>159.5</v>
+        <v>71</v>
       </c>
       <c r="G94" t="n">
-        <v>333</v>
+        <v>125</v>
       </c>
       <c r="H94" t="n">
-        <v>243</v>
+        <v>851</v>
       </c>
       <c r="I94" t="n">
-        <v>822</v>
+        <v>318</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>teste-64</t>
+          <t>teste-67</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>76.5</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="I95" t="n">
-        <v>228</v>
+        <v>321</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>nenhuma linha encontrada</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>teste-65</t>
+          <t>teste-68</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>528</v>
+        <v>489</v>
       </c>
       <c r="C96" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D96" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E96" t="n">
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>183.5</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H96" t="n">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I96" t="n">
-        <v>1080</v>
+        <v>1020</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>teste-66</t>
+          <t>teste-69</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>137</v>
+        <v>655</v>
       </c>
       <c r="C97" t="n">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E97" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F97" t="n">
-        <v>71</v>
+        <v>862</v>
       </c>
       <c r="G97" t="n">
-        <v>125</v>
+        <v>1078</v>
       </c>
       <c r="H97" t="n">
-        <v>851</v>
+        <v>405</v>
       </c>
       <c r="I97" t="n">
-        <v>318</v>
+        <v>1205</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>teste-68</t>
+          <t>teste-70</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>489</v>
+        <v>377</v>
       </c>
       <c r="C98" t="n">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="D98" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E98" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F98" t="n">
-        <v>183</v>
+        <v>643.5</v>
       </c>
       <c r="G98" t="n">
-        <v>266</v>
+        <v>990</v>
       </c>
       <c r="H98" t="n">
-        <v>262</v>
+        <v>435</v>
       </c>
       <c r="I98" t="n">
-        <v>1020</v>
+        <v>693</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>teste-69</t>
+          <t>teste-71</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>655</v>
+        <v>463</v>
       </c>
       <c r="C99" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D99" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
-        <v>862</v>
+        <v>172.5</v>
       </c>
       <c r="G99" t="n">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="I99" t="n">
-        <v>1205</v>
+        <v>817</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>teste-70</t>
+          <t>teste-72</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="C100" t="n">
-        <v>181</v>
+        <v>364</v>
       </c>
       <c r="D100" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F100" t="n">
-        <v>643.5</v>
+        <v>171.5</v>
       </c>
       <c r="G100" t="n">
-        <v>990</v>
+        <v>240</v>
       </c>
       <c r="H100" t="n">
-        <v>435</v>
+        <v>834</v>
       </c>
       <c r="I100" t="n">
-        <v>693</v>
+        <v>360</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>teste-71</t>
+          <t>teste-73</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C101" t="n">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="D101" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F101" t="n">
-        <v>172.5</v>
+        <v>1099.5</v>
       </c>
       <c r="G101" t="n">
-        <v>240</v>
+        <v>1596</v>
       </c>
       <c r="H101" t="n">
-        <v>361</v>
+        <v>566</v>
       </c>
       <c r="I101" t="n">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>teste-71</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>640</v>
-      </c>
-      <c r="C102" t="n">
-        <v>74</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7</v>
-      </c>
-      <c r="E102" t="n">
-        <v>26</v>
-      </c>
-      <c r="F102" t="n">
-        <v>106</v>
-      </c>
-      <c r="G102" t="n">
-        <v>182</v>
-      </c>
-      <c r="H102" t="n">
-        <v>361</v>
-      </c>
-      <c r="I102" t="n">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>teste-72</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>164</v>
-      </c>
-      <c r="C103" t="n">
-        <v>364</v>
-      </c>
-      <c r="D103" t="n">
-        <v>8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>30</v>
-      </c>
-      <c r="F103" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="G103" t="n">
-        <v>240</v>
-      </c>
-      <c r="H103" t="n">
-        <v>834</v>
-      </c>
-      <c r="I103" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>teste-73</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>454</v>
-      </c>
-      <c r="C104" t="n">
-        <v>224</v>
-      </c>
-      <c r="D104" t="n">
-        <v>57</v>
-      </c>
-      <c r="E104" t="n">
-        <v>28</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1099.5</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1596</v>
-      </c>
-      <c r="H104" t="n">
-        <v>566</v>
-      </c>
-      <c r="I104" t="n">
         <v>780</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>negativo</t>
+        </is>
       </c>
     </row>
   </sheetData>
